--- a/Excel Books/Basic3.xlsx
+++ b/Excel Books/Basic3.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -9,13 +9,183 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>student 1</t>
+  </si>
+  <si>
+    <t>student 2</t>
+  </si>
+  <si>
+    <t>student 3</t>
+  </si>
+  <si>
+    <t>student 4</t>
+  </si>
+  <si>
+    <t>student 5</t>
+  </si>
+  <si>
+    <t>student 6</t>
+  </si>
+  <si>
+    <t>student 7</t>
+  </si>
+  <si>
+    <t>student 8</t>
+  </si>
+  <si>
+    <t>student 9</t>
+  </si>
+  <si>
+    <t>student 10</t>
+  </si>
+  <si>
+    <t>student 11</t>
+  </si>
+  <si>
+    <t>student 12</t>
+  </si>
+  <si>
+    <t>student 13</t>
+  </si>
+  <si>
+    <t>student 14</t>
+  </si>
+  <si>
+    <t>student 15</t>
+  </si>
+  <si>
+    <t>student 16</t>
+  </si>
+  <si>
+    <t>student 17</t>
+  </si>
+  <si>
+    <t>student 18</t>
+  </si>
+  <si>
+    <t>student 19</t>
+  </si>
+  <si>
+    <t>student 20</t>
+  </si>
+  <si>
+    <t>student 21</t>
+  </si>
+  <si>
+    <t>student 22</t>
+  </si>
+  <si>
+    <t>student 23</t>
+  </si>
+  <si>
+    <t>student 24</t>
+  </si>
+  <si>
+    <t>student 25</t>
+  </si>
+  <si>
+    <t>student 26</t>
+  </si>
+  <si>
+    <t>student 27</t>
+  </si>
+  <si>
+    <t>student 28</t>
+  </si>
+  <si>
+    <t>student 29</t>
+  </si>
+  <si>
+    <t>student 30</t>
+  </si>
+  <si>
+    <t>student 31</t>
+  </si>
+  <si>
+    <t>student 32</t>
+  </si>
+  <si>
+    <t>student 33</t>
+  </si>
+  <si>
+    <t>student 34</t>
+  </si>
+  <si>
+    <t>student 35</t>
+  </si>
+  <si>
+    <t>student 36</t>
+  </si>
+  <si>
+    <t>student 37</t>
+  </si>
+  <si>
+    <t>student 38</t>
+  </si>
+  <si>
+    <t>student 39</t>
+  </si>
+  <si>
+    <t>student 40</t>
+  </si>
+  <si>
+    <t>student 41</t>
+  </si>
+  <si>
+    <t>student 42</t>
+  </si>
+  <si>
+    <t>student 43</t>
+  </si>
+  <si>
+    <t>student 44</t>
+  </si>
+  <si>
+    <t>student 45</t>
+  </si>
+  <si>
+    <t>student 46</t>
+  </si>
+  <si>
+    <t>student 47</t>
+  </si>
+  <si>
+    <t>student 48</t>
+  </si>
+  <si>
+    <t>student 49</t>
+  </si>
+  <si>
+    <t>student 50</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,6 +222,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -98,7 +276,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -133,7 +311,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -341,13 +519,1291 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <f ca="1">RANDBETWEEN(30,90)</f>
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <f ca="1">RANDBETWEEN(30,90)</f>
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <f ca="1">RANDBETWEEN(30,90)</f>
+        <v>66</v>
+      </c>
+      <c r="G2">
+        <f ca="1">RANDBETWEEN(30,90)</f>
+        <v>60</v>
+      </c>
+      <c r="H2">
+        <f ca="1">RANDBETWEEN(30,90)</f>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:H34" ca="1" si="0">RANDBETWEEN(30,90)</f>
+        <v>68</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ca="1" si="0"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ca="1" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="F9">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="G9">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="H9">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G12">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="H12">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ca="1" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="F15">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="G15">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="H15">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G16">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="H16">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="H17">
+        <f ca="1">RANDBETWEEN(30,90)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="0"/>
+        <v>84</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="0"/>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ca="1" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="G25">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>87</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="0"/>
+        <v>82</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="0"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="G28">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="H28">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="G29">
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="H29">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="G30">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="H30">
+        <f t="shared" ca="1" si="0"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="G31">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="H31">
+        <f t="shared" ca="1" si="0"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F32">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="H32">
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="0"/>
+        <v>81</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ca="1" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="H33">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="G34">
+        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="H34">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:H51" ca="1" si="1">RANDBETWEEN(30,90)</f>
+        <v>38</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ca="1" si="1"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ca="1" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="H36">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G37">
+        <f t="shared" ca="1" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="H37">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ca="1" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="G38">
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="H38">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G39">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="H39">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ca="1" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="G40">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="H40">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="H41">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="G42">
+        <f t="shared" ca="1" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="H42">
+        <f t="shared" ca="1" si="1"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ca="1" si="1"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="G44">
+        <f t="shared" ca="1" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="H44">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ca="1" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="G45">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="H45">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46">
+        <f t="shared" ca="1" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G46">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H46">
+        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ca="1" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="G47">
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="H47">
+        <f t="shared" ca="1" si="1"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ca="1" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="G48">
+        <f t="shared" ca="1" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49">
+        <f t="shared" ca="1" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="G49">
+        <f t="shared" ca="1" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="H49">
+        <f t="shared" ca="1" si="1"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ca="1" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="G50">
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="H50">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ca="1" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="G51">
+        <f t="shared" ca="1" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="H51">
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Excel Books/Basic3.xlsx
+++ b/Excel Books/Basic3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>English</t>
   </si>
@@ -179,13 +179,29 @@
   </si>
   <si>
     <t>student 50</t>
+  </si>
+  <si>
+    <t>Marks Obtained</t>
+  </si>
+  <si>
+    <t>Total Marks</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,14 +227,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -520,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H51"/>
+  <dimension ref="C1:K51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,9 +553,12 @@
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -552,1255 +574,1514 @@
       <c r="H1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
-        <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E2">
-        <f ca="1">RANDBETWEEN(30,90)</f>
+        <v>67</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>53</v>
+      </c>
+      <c r="H2">
         <v>40</v>
       </c>
-      <c r="F2">
-        <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>66</v>
-      </c>
-      <c r="G2">
-        <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>60</v>
-      </c>
-      <c r="H2">
-        <f ca="1">RANDBETWEEN(30,90)</f>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>242</v>
+      </c>
+      <c r="J2">
+        <v>500</v>
+      </c>
+      <c r="K2" s="1">
+        <f>I2/J2</f>
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:H34" ca="1" si="0">RANDBETWEEN(30,90)</f>
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="E3">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="F3">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="H3">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="I3">
+        <v>253</v>
+      </c>
+      <c r="J3">
+        <v>500</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K51" si="0">I3/J3</f>
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="E4">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="F4">
-        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="G4">
         <v>85</v>
       </c>
-      <c r="G4">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
-      </c>
       <c r="H4">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="I4">
+        <v>329</v>
+      </c>
+      <c r="J4">
+        <v>500</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E5">
-        <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="H5">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="I5">
+        <v>366</v>
+      </c>
+      <c r="J5">
+        <v>500</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73199999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="E6">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="H6">
-        <f t="shared" ca="1" si="0"/>
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>291</v>
+      </c>
+      <c r="J6">
+        <v>500</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="E7">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="H7">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I7">
+        <v>256</v>
+      </c>
+      <c r="J7">
+        <v>500</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H8">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="I8">
+        <v>283</v>
+      </c>
+      <c r="J8">
+        <v>500</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="0"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="I9">
+        <v>409</v>
+      </c>
+      <c r="J9">
+        <v>500</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>0.81799999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>13</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>89</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="I10">
+        <v>308</v>
+      </c>
+      <c r="J10">
+        <v>500</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G11">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="H11">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="I11">
+        <v>342</v>
+      </c>
+      <c r="J11">
+        <v>500</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G12">
-        <f t="shared" ca="1" si="0"/>
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="H12">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="I12">
+        <v>395</v>
+      </c>
+      <c r="J12">
+        <v>500</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>61</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="I13">
+        <v>324</v>
+      </c>
+      <c r="J13">
+        <v>500</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="0"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I14">
+        <v>368</v>
+      </c>
+      <c r="J14">
+        <v>500</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I15">
+        <v>270</v>
+      </c>
+      <c r="J15">
+        <v>500</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>87</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="0"/>
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="I16">
+        <v>325</v>
+      </c>
+      <c r="J16">
+        <v>500</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="0"/>
+        <v>86</v>
+      </c>
+      <c r="F17">
         <v>56</v>
       </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
       <c r="G17">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="H17">
-        <f ca="1">RANDBETWEEN(30,90)</f>
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>318</v>
+      </c>
+      <c r="J17">
+        <v>500</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>21</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H18">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="I18">
+        <v>349</v>
+      </c>
+      <c r="J18">
+        <v>500</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.69799999999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="H19">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I19">
+        <v>293</v>
+      </c>
+      <c r="J19">
+        <v>500</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>23</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E20">
+        <v>35</v>
+      </c>
+      <c r="F20">
         <v>54</v>
       </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="0"/>
-        <v>66</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
-      </c>
       <c r="G20">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="H20">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="I20">
+        <v>244</v>
+      </c>
+      <c r="J20">
+        <v>500</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48799999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>24</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G21">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H21">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="I21">
+        <v>313</v>
+      </c>
+      <c r="J21">
+        <v>500</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.626</v>
+      </c>
+    </row>
+    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>25</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G22">
-        <f t="shared" ca="1" si="0"/>
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="H22">
-        <f t="shared" ca="1" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="I22">
+        <v>352</v>
+      </c>
+      <c r="J22">
+        <v>500</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70399999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>26</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="E23">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G23">
-        <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="H23">
-        <f t="shared" ca="1" si="0"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I23">
+        <v>283</v>
+      </c>
+      <c r="J23">
+        <v>500</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>0.56599999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>27</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E24">
-        <f t="shared" ca="1" si="0"/>
         <v>44</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="G24">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="H24">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="I24">
+        <v>270</v>
+      </c>
+      <c r="J24">
+        <v>500</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>28</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="E25">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G25">
-        <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="H25">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="I25">
+        <v>279</v>
+      </c>
+      <c r="J25">
+        <v>500</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55800000000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E26">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="G26">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="H26">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I26">
+        <v>309</v>
+      </c>
+      <c r="J26">
+        <v>500</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61799999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>30</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="0"/>
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E27">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27">
-        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="H27">
         <v>67</v>
       </c>
-      <c r="H27">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>291</v>
+      </c>
+      <c r="J27">
+        <v>500</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58199999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>31</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E28">
-        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="F28">
         <v>34</v>
       </c>
-      <c r="F28">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
       <c r="G28">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="H28">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="I28">
+        <v>271</v>
+      </c>
+      <c r="J28">
+        <v>500</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54200000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>32</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E29">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="0"/>
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G29">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="I29">
+        <v>278</v>
+      </c>
+      <c r="J29">
+        <v>500</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55600000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>33</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="E30">
-        <f t="shared" ca="1" si="0"/>
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G30">
-        <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="I30">
+        <v>259</v>
+      </c>
+      <c r="J30">
+        <v>500</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>34</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="E31">
-        <f t="shared" ca="1" si="0"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="0"/>
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="G31">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H31">
-        <f t="shared" ca="1" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="I31">
+        <v>296</v>
+      </c>
+      <c r="J31">
+        <v>500</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>35</v>
       </c>
       <c r="D32">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="E32">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="G32">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H32">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="I32">
+        <v>353</v>
+      </c>
+      <c r="J32">
+        <v>500</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.70599999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>36</v>
       </c>
       <c r="D33">
-        <f t="shared" ca="1" si="0"/>
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="E33">
-        <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="0"/>
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G33">
-        <f t="shared" ca="1" si="0"/>
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H33">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I33">
+        <v>293</v>
+      </c>
+      <c r="J33">
+        <v>500</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58599999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>37</v>
       </c>
       <c r="D34">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="E34">
-        <f t="shared" ca="1" si="0"/>
         <v>30</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G34">
-        <f t="shared" ca="1" si="0"/>
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H34">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="I34">
+        <v>317</v>
+      </c>
+      <c r="J34">
+        <v>500</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63400000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>38</v>
       </c>
       <c r="D35">
-        <f t="shared" ref="D35:H51" ca="1" si="1">RANDBETWEEN(30,90)</f>
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E35">
-        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="F35">
+        <v>47</v>
+      </c>
+      <c r="G35">
         <v>72</v>
       </c>
-      <c r="F35">
-        <f t="shared" ca="1" si="1"/>
-        <v>88</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
-      </c>
       <c r="H35">
-        <f t="shared" ca="1" si="1"/>
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I35">
+        <v>301</v>
+      </c>
+      <c r="J35">
+        <v>500</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>39</v>
       </c>
       <c r="D36">
-        <f t="shared" ca="1" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="E36">
+        <v>68</v>
+      </c>
+      <c r="F36">
+        <v>69</v>
+      </c>
+      <c r="G36">
+        <v>38</v>
+      </c>
+      <c r="H36">
         <v>71</v>
       </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="G36">
-        <f t="shared" ca="1" si="1"/>
-        <v>78</v>
-      </c>
-      <c r="H36">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>296</v>
+      </c>
+      <c r="J36">
+        <v>500</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" si="0"/>
+        <v>0.59199999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>40</v>
       </c>
       <c r="D37">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>35</v>
       </c>
       <c r="G37">
-        <f t="shared" ca="1" si="1"/>
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H37">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="I37">
+        <v>265</v>
+      </c>
+      <c r="J37">
+        <v>500</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="0"/>
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>41</v>
       </c>
       <c r="D38">
-        <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G38">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H38">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="I38">
+        <v>319</v>
+      </c>
+      <c r="J38">
+        <v>500</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63800000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>42</v>
       </c>
       <c r="D39">
-        <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G39">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="H39">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="I39">
+        <v>320</v>
+      </c>
+      <c r="J39">
+        <v>500</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="0"/>
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>43</v>
       </c>
       <c r="D40">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="G40">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="H40">
-        <f t="shared" ca="1" si="1"/>
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="I40">
+        <v>318</v>
+      </c>
+      <c r="J40">
+        <v>500</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63600000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>44</v>
       </c>
       <c r="D41">
-        <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="E41">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="G41">
         <v>31</v>
       </c>
-      <c r="G41">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
-      </c>
       <c r="H41">
-        <f t="shared" ca="1" si="1"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="I41">
+        <v>255</v>
+      </c>
+      <c r="J41">
+        <v>500</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>45</v>
       </c>
       <c r="D42">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>83</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G42">
-        <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="H42">
-        <f t="shared" ca="1" si="1"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="I42">
+        <v>275</v>
+      </c>
+      <c r="J42">
+        <v>500</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>46</v>
       </c>
       <c r="D43">
-        <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E43">
-        <f t="shared" ca="1" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="F43">
         <v>40</v>
       </c>
-      <c r="F43">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
-      </c>
       <c r="G43">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H43">
-        <f t="shared" ca="1" si="1"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="I43">
+        <v>276</v>
+      </c>
+      <c r="J43">
+        <v>500</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55200000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>47</v>
       </c>
       <c r="D44">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="E44">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="G44">
-        <f t="shared" ca="1" si="1"/>
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="H44">
-        <f t="shared" ca="1" si="1"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="I44">
+        <v>386</v>
+      </c>
+      <c r="J44">
+        <v>500</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77200000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>48</v>
       </c>
       <c r="D45">
-        <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="E45">
-        <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G45">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="H45">
-        <f t="shared" ca="1" si="1"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="I45">
+        <v>308</v>
+      </c>
+      <c r="J45">
+        <v>500</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61599999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>49</v>
       </c>
       <c r="D46">
-        <f t="shared" ca="1" si="1"/>
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E46">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="1"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G46">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="H46">
-        <f t="shared" ca="1" si="1"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="I46">
+        <v>270</v>
+      </c>
+      <c r="J46">
+        <v>500</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>50</v>
       </c>
       <c r="D47">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="E47">
-        <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="G47">
+        <v>77</v>
+      </c>
+      <c r="H47">
         <v>64</v>
       </c>
-      <c r="G47">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
-      </c>
-      <c r="H47">
-        <f t="shared" ca="1" si="1"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>301</v>
+      </c>
+      <c r="J47">
+        <v>500</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="0"/>
+        <v>0.60199999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>51</v>
       </c>
       <c r="D48">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="E48">
-        <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F48">
-        <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="G48">
-        <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H48">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="I48">
+        <v>389</v>
+      </c>
+      <c r="J48">
+        <v>500</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="0"/>
+        <v>0.77800000000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>52</v>
       </c>
       <c r="D49">
-        <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="E49">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="F49">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G49">
-        <f t="shared" ca="1" si="1"/>
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="H49">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="I49">
+        <v>355</v>
+      </c>
+      <c r="J49">
+        <v>500</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="0"/>
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>53</v>
       </c>
       <c r="D50">
-        <f t="shared" ca="1" si="1"/>
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="E50">
-        <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>74</v>
       </c>
       <c r="F50">
-        <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G50">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="H50">
-        <f t="shared" ca="1" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="I50">
+        <v>294</v>
+      </c>
+      <c r="J50">
+        <v>500</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="0"/>
+        <v>0.58799999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
       <c r="D51">
-        <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E51">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="F51">
-        <f t="shared" ca="1" si="1"/>
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G51">
-        <f t="shared" ca="1" si="1"/>
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="H51">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>43</v>
+      </c>
+      <c r="I51">
+        <v>315</v>
+      </c>
+      <c r="J51">
+        <v>500</v>
+      </c>
+      <c r="K51" s="1">
+        <f t="shared" si="0"/>
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Books/Basic3.xlsx
+++ b/Excel Books/Basic3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>English</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>Percentage</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -539,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:K51"/>
+  <dimension ref="C1:L51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +561,7 @@
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:12" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -583,8 +586,11 @@
       <c r="K1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -613,8 +619,12 @@
         <f>I2/J2</f>
         <v>0.48399999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="str">
+        <f>IF(K2&gt;50%,"Pass","Fail")</f>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -643,8 +653,12 @@
         <f t="shared" ref="K3:K51" si="0">I3/J3</f>
         <v>0.50600000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L51" si="1">IF(K3&gt;50%,"Pass","Fail")</f>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -673,8 +687,12 @@
         <f t="shared" si="0"/>
         <v>0.65800000000000003</v>
       </c>
-    </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L4" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -703,8 +721,12 @@
         <f t="shared" si="0"/>
         <v>0.73199999999999998</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -733,8 +755,12 @@
         <f t="shared" si="0"/>
         <v>0.58199999999999996</v>
       </c>
-    </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L6" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -763,8 +789,12 @@
         <f t="shared" si="0"/>
         <v>0.51200000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L7" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -793,8 +823,12 @@
         <f t="shared" si="0"/>
         <v>0.56599999999999995</v>
       </c>
-    </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -823,8 +857,12 @@
         <f t="shared" si="0"/>
         <v>0.81799999999999995</v>
       </c>
-    </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L9" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>13</v>
       </c>
@@ -853,8 +891,12 @@
         <f t="shared" si="0"/>
         <v>0.61599999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L10" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -883,8 +925,12 @@
         <f t="shared" si="0"/>
         <v>0.68400000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -913,8 +959,12 @@
         <f t="shared" si="0"/>
         <v>0.79</v>
       </c>
-    </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -943,8 +993,12 @@
         <f t="shared" si="0"/>
         <v>0.64800000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L13" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -973,8 +1027,12 @@
         <f t="shared" si="0"/>
         <v>0.73599999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L14" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -1003,8 +1061,12 @@
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
-    </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -1033,8 +1095,12 @@
         <f t="shared" si="0"/>
         <v>0.65</v>
       </c>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L16" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -1063,8 +1129,12 @@
         <f t="shared" si="0"/>
         <v>0.63600000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L17" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -1093,8 +1163,12 @@
         <f t="shared" si="0"/>
         <v>0.69799999999999995</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>22</v>
       </c>
@@ -1123,8 +1197,12 @@
         <f t="shared" si="0"/>
         <v>0.58599999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>23</v>
       </c>
@@ -1153,8 +1231,12 @@
         <f t="shared" si="0"/>
         <v>0.48799999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L20" t="str">
+        <f t="shared" si="1"/>
+        <v>Fail</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>24</v>
       </c>
@@ -1183,8 +1265,12 @@
         <f t="shared" si="0"/>
         <v>0.626</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L21" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -1213,8 +1299,12 @@
         <f t="shared" si="0"/>
         <v>0.70399999999999996</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L22" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -1243,8 +1333,12 @@
         <f t="shared" si="0"/>
         <v>0.56599999999999995</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L23" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>27</v>
       </c>
@@ -1273,8 +1367,12 @@
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>28</v>
       </c>
@@ -1303,8 +1401,12 @@
         <f t="shared" si="0"/>
         <v>0.55800000000000005</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -1333,8 +1435,12 @@
         <f t="shared" si="0"/>
         <v>0.61799999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L26" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -1363,8 +1469,12 @@
         <f t="shared" si="0"/>
         <v>0.58199999999999996</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L27" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>31</v>
       </c>
@@ -1393,8 +1503,12 @@
         <f t="shared" si="0"/>
         <v>0.54200000000000004</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L28" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>32</v>
       </c>
@@ -1423,8 +1537,12 @@
         <f t="shared" si="0"/>
         <v>0.55600000000000005</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L29" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>33</v>
       </c>
@@ -1453,8 +1571,12 @@
         <f t="shared" si="0"/>
         <v>0.51800000000000002</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L30" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>34</v>
       </c>
@@ -1483,8 +1605,12 @@
         <f t="shared" si="0"/>
         <v>0.59199999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L31" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>35</v>
       </c>
@@ -1513,8 +1639,12 @@
         <f t="shared" si="0"/>
         <v>0.70599999999999996</v>
       </c>
-    </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L32" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -1543,8 +1673,12 @@
         <f t="shared" si="0"/>
         <v>0.58599999999999997</v>
       </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L33" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -1573,8 +1707,12 @@
         <f t="shared" si="0"/>
         <v>0.63400000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L34" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>38</v>
       </c>
@@ -1603,8 +1741,12 @@
         <f t="shared" si="0"/>
         <v>0.60199999999999998</v>
       </c>
-    </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L35" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>39</v>
       </c>
@@ -1633,8 +1775,12 @@
         <f t="shared" si="0"/>
         <v>0.59199999999999997</v>
       </c>
-    </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L36" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>40</v>
       </c>
@@ -1663,8 +1809,12 @@
         <f t="shared" si="0"/>
         <v>0.53</v>
       </c>
-    </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L37" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>41</v>
       </c>
@@ -1693,8 +1843,12 @@
         <f t="shared" si="0"/>
         <v>0.63800000000000001</v>
       </c>
-    </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L38" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>42</v>
       </c>
@@ -1723,8 +1877,12 @@
         <f t="shared" si="0"/>
         <v>0.64</v>
       </c>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L39" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>43</v>
       </c>
@@ -1753,8 +1911,12 @@
         <f t="shared" si="0"/>
         <v>0.63600000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L40" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>44</v>
       </c>
@@ -1783,8 +1945,12 @@
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
-    </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L41" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>45</v>
       </c>
@@ -1813,8 +1979,12 @@
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L42" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>46</v>
       </c>
@@ -1843,8 +2013,12 @@
         <f t="shared" si="0"/>
         <v>0.55200000000000005</v>
       </c>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L43" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>47</v>
       </c>
@@ -1873,8 +2047,12 @@
         <f t="shared" si="0"/>
         <v>0.77200000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L44" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>48</v>
       </c>
@@ -1903,8 +2081,12 @@
         <f t="shared" si="0"/>
         <v>0.61599999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L45" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>49</v>
       </c>
@@ -1933,8 +2115,12 @@
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L46" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -1963,8 +2149,12 @@
         <f t="shared" si="0"/>
         <v>0.60199999999999998</v>
       </c>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L47" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>51</v>
       </c>
@@ -1993,8 +2183,12 @@
         <f t="shared" si="0"/>
         <v>0.77800000000000002</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L48" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>52</v>
       </c>
@@ -2023,8 +2217,12 @@
         <f t="shared" si="0"/>
         <v>0.71</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L49" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>53</v>
       </c>
@@ -2053,8 +2251,12 @@
         <f t="shared" si="0"/>
         <v>0.58799999999999997</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="L50" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -2082,6 +2284,10 @@
       <c r="K51" s="1">
         <f t="shared" si="0"/>
         <v>0.63</v>
+      </c>
+      <c r="L51" t="str">
+        <f t="shared" si="1"/>
+        <v>Pass</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Books/Basic3.xlsx
+++ b/Excel Books/Basic3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>English</t>
   </si>
@@ -191,6 +191,45 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>&lt;40%</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Between 40 to 49</t>
+  </si>
+  <si>
+    <t>Between 50to 59</t>
+  </si>
+  <si>
+    <t>Between 60to 69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Between 70 to 79 </t>
+  </si>
+  <si>
+    <t>80% Above</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>A+</t>
   </si>
 </sst>
 </file>
@@ -542,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:L51"/>
+  <dimension ref="C1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,9 +598,10 @@
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:17" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -590,7 +630,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -624,7 +664,7 @@
         <v>Fail</v>
       </c>
     </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>6</v>
       </c>
@@ -658,7 +698,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -692,7 +732,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>8</v>
       </c>
@@ -726,7 +766,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="6" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>9</v>
       </c>
@@ -760,7 +800,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="7" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>10</v>
       </c>
@@ -794,7 +834,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="8" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>11</v>
       </c>
@@ -828,7 +868,7 @@
         <v>Pass</v>
       </c>
     </row>
-    <row r="9" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>12</v>
       </c>
@@ -861,8 +901,11 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="10" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>13</v>
       </c>
@@ -895,8 +938,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="11" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -929,8 +978,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="12" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>15</v>
       </c>
@@ -963,8 +1018,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="13" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>16</v>
       </c>
@@ -997,8 +1058,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="14" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>17</v>
       </c>
@@ -1031,8 +1098,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="15" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>18</v>
       </c>
@@ -1065,8 +1138,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="16" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>

--- a/Excel Books/Basic3.xlsx
+++ b/Excel Books/Basic3.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$1:$M$51</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>English</t>
   </si>
@@ -230,6 +233,15 @@
   </si>
   <si>
     <t>A+</t>
+  </si>
+  <si>
+    <t>Student Name</t>
+  </si>
+  <si>
+    <t>Grade</t>
+  </si>
+  <si>
+    <t>Rank</t>
   </si>
 </sst>
 </file>
@@ -281,7 +293,78 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -583,13 +666,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
@@ -602,6 +685,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:17" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>72</v>
+      </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
@@ -628,6 +714,12 @@
       </c>
       <c r="L1" t="s">
         <v>58</v>
+      </c>
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="3:17" x14ac:dyDescent="0.25">
@@ -663,6 +755,14 @@
         <f>IF(K2&gt;50%,"Pass","Fail")</f>
         <v>Fail</v>
       </c>
+      <c r="M2" t="str">
+        <f>IF(K2&lt;40%,"Fail",IF(K2&lt;50%,"D",IF(K2&lt;60%,"C",IF(K2&lt;70%,"B",IF(K2&lt;80%,"A","A+")))))</f>
+        <v>D</v>
+      </c>
+      <c r="N2">
+        <f>RANK(K2,K2:K51)</f>
+        <v>50</v>
+      </c>
     </row>
     <row r="3" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -697,6 +797,14 @@
         <f t="shared" ref="L3:L51" si="1">IF(K3&gt;50%,"Pass","Fail")</f>
         <v>Pass</v>
       </c>
+      <c r="M3" t="str">
+        <f t="shared" ref="M3:M51" si="2">IF(K3&lt;40%,"Fail",IF(K3&lt;50%,"D",IF(K3&lt;60%,"C",IF(K3&lt;70%,"B",IF(K3&lt;80%,"A","A+")))))</f>
+        <v>C</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N51" si="3">RANK(K3,K3:K52)</f>
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -731,6 +839,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="M4" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -765,6 +881,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="M5" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
@@ -799,6 +923,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="M6" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
@@ -833,6 +965,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="M7" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
@@ -867,6 +1007,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="M8" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -901,6 +1049,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="M9" t="str">
+        <f t="shared" si="2"/>
+        <v>A+</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="P9" t="s">
         <v>59</v>
       </c>
@@ -938,6 +1094,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="M10" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
       <c r="P10" t="s">
         <v>60</v>
       </c>
@@ -978,6 +1142,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="M11" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="P11" t="s">
         <v>62</v>
       </c>
@@ -1018,6 +1190,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="M12" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="P12" t="s">
         <v>63</v>
       </c>
@@ -1058,6 +1238,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="M13" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
       <c r="P13" t="s">
         <v>64</v>
       </c>
@@ -1098,6 +1286,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="M14" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
       <c r="P14" t="s">
         <v>65</v>
       </c>
@@ -1138,6 +1334,14 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="M15" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
       <c r="P15" t="s">
         <v>66</v>
       </c>
@@ -1178,8 +1382,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M16" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>20</v>
       </c>
@@ -1212,8 +1424,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M17" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>21</v>
       </c>
@@ -1246,8 +1466,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M18" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>22</v>
       </c>
@@ -1280,8 +1508,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M19" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>23</v>
       </c>
@@ -1314,8 +1550,16 @@
         <f t="shared" si="1"/>
         <v>Fail</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M20" t="str">
+        <f t="shared" si="2"/>
+        <v>D</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>24</v>
       </c>
@@ -1348,8 +1592,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M21" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>25</v>
       </c>
@@ -1382,8 +1634,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M22" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>26</v>
       </c>
@@ -1416,8 +1676,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M23" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>27</v>
       </c>
@@ -1450,8 +1718,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M24" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>28</v>
       </c>
@@ -1484,8 +1760,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M25" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>29</v>
       </c>
@@ -1518,8 +1802,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M26" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>30</v>
       </c>
@@ -1552,8 +1844,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M27" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>31</v>
       </c>
@@ -1586,8 +1886,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M28" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>32</v>
       </c>
@@ -1620,8 +1928,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M29" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>33</v>
       </c>
@@ -1654,8 +1970,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M30" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>34</v>
       </c>
@@ -1688,8 +2012,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M31" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>35</v>
       </c>
@@ -1722,8 +2054,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="33" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M32" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>36</v>
       </c>
@@ -1756,8 +2096,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M33" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>37</v>
       </c>
@@ -1790,8 +2138,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M34" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N34">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>38</v>
       </c>
@@ -1824,8 +2180,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="36" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M35" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>39</v>
       </c>
@@ -1858,8 +2222,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="37" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M36" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>40</v>
       </c>
@@ -1892,8 +2264,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="38" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M37" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="3"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>41</v>
       </c>
@@ -1926,8 +2306,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="39" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M38" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N38">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>42</v>
       </c>
@@ -1960,8 +2348,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="40" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M39" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>43</v>
       </c>
@@ -1994,8 +2390,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="41" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M40" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>44</v>
       </c>
@@ -2028,8 +2432,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="42" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M41" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>45</v>
       </c>
@@ -2062,8 +2474,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="43" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M42" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N42">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>46</v>
       </c>
@@ -2096,8 +2516,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="44" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M43" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>47</v>
       </c>
@@ -2130,8 +2558,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="45" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M44" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>48</v>
       </c>
@@ -2164,8 +2600,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="46" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M45" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>49</v>
       </c>
@@ -2198,8 +2642,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="47" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M46" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N46">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>50</v>
       </c>
@@ -2232,8 +2684,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="48" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M47" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>51</v>
       </c>
@@ -2266,8 +2726,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M48" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>52</v>
       </c>
@@ -2300,8 +2768,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M49" t="str">
+        <f t="shared" si="2"/>
+        <v>A</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>53</v>
       </c>
@@ -2334,8 +2810,16 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="M50" t="str">
+        <f t="shared" si="2"/>
+        <v>C</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>54</v>
       </c>
@@ -2368,8 +2852,25 @@
         <f t="shared" si="1"/>
         <v>Pass</v>
       </c>
+      <c r="M51" t="str">
+        <f t="shared" si="2"/>
+        <v>B</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="C1:M51"/>
+  <conditionalFormatting sqref="L1:L1048576 M1:N1">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>